--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,25 +40,28 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>disturbing</t>
   </si>
   <si>
     <t>dangerous</t>
@@ -70,13 +73,19 @@
     <t>wrong</t>
   </si>
   <si>
-    <t>fucking</t>
+    <t>scary</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>shit</t>
@@ -85,12 +94,6 @@
     <t>crazy</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -100,31 +103,31 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>many</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,10 +508,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,10 +572,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -616,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -634,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -666,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6">
-        <v>0.82</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -758,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,13 +769,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8787878787878788</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -787,16 +790,16 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -808,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -816,13 +819,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -834,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8">
-        <v>0.5862068965517241</v>
+        <v>0.6133333333333333</v>
       </c>
       <c r="L8">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -858,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -866,13 +869,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8461538461538461</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -887,16 +890,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.5166666666666667</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -908,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -916,13 +919,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -934,19 +937,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -958,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -966,13 +969,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -984,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>0.4827586206896552</v>
+      </c>
+      <c r="L11">
         <v>14</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11">
-        <v>0.4933333333333333</v>
-      </c>
-      <c r="L11">
-        <v>37</v>
-      </c>
       <c r="M11">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1008,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1016,13 +1019,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6470588235294118</v>
+        <v>0.675</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1034,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12">
-        <v>0.2916666666666667</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1066,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5625</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C13">
         <v>9</v>
@@ -1084,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K13">
-        <v>0.1408450704225352</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1108,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1116,13 +1119,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1134,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.07377049180327869</v>
+        <v>0.08469945355191257</v>
       </c>
       <c r="L14">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1158,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1017</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1166,13 +1169,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4710144927536232</v>
+        <v>0.45</v>
       </c>
       <c r="C15">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1184,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>0.01807228915662651</v>
+        <v>0.02108433734939759</v>
       </c>
       <c r="L15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1208,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1216,13 +1219,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3829787234042553</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1234,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>0.01408450704225352</v>
+        <v>0.01792573623559539</v>
       </c>
       <c r="L16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1258,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1266,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3714285714285714</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1284,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>0.00576036866359447</v>
+        <v>0.005184331797235023</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1308,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1316,7 +1319,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3461538461538461</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -1334,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1342,13 +1345,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2564102564102564</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1360,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1368,7 +1371,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.141025641025641</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -1386,7 +1389,33 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>67</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
